--- a/OnBoard/output/trust/bio/Bio_Trust_45BIS.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_45BIS.xlsx
@@ -452,12 +452,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,12 +499,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -687,12 +687,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -828,12 +828,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1674,12 +1674,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1726,12 +1726,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2263,12 +2263,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2310,12 +2310,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2357,12 +2357,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2451,12 +2451,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2545,12 +2545,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -3374,12 +3374,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
